--- a/data/long_bre/P19_2-Urba-long_bre.xlsx
+++ b/data/long_bre/P19_2-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-15,0%</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-16,54%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12,4%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-20,94%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 8,29</t>
+          <t>-4,0; 7,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 2,38</t>
+          <t>-11,82; 2,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 7,67</t>
+          <t>-2,78; 7,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 36,4</t>
+          <t>-18,64; 2,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,32; 13,55</t>
+          <t>-5,11; 7,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 45,08</t>
+          <t>-13,61; 31,64</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-42,75; 11,6</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-12,16; 43,44</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-57,17; 12,02</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-21,22; 47,72</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,73</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,81%</t>
+          <t>-3,9%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,92%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-10,64%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12,06%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 3,78</t>
+          <t>-8,77; 4,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 10,9</t>
+          <t>-3,65; 11,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 0,01</t>
+          <t>-12,32; 1,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 7,54</t>
+          <t>-2,17; 14,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 23,48</t>
+          <t>-5,92; 10,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 0,01</t>
+          <t>-15,07; 8,39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 25,5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-19,68; 2,29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 34,79</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-11,84; 25,56</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,4%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18,58%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-4,78%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-9,22%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 5,55</t>
+          <t>-4,55; 5,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 6,75</t>
+          <t>-6,9; 5,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 11,45</t>
+          <t>-3,64; 9,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 32,71</t>
+          <t>-8,73; 6,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 28,08</t>
+          <t>-11,12; 4,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 66,94</t>
+          <t>-19,94; 32,13</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-21,33; 22,88</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-15,8; 54,39</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-26,68; 25,96</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-30,13; 15,73</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 9,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 5,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 10,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 41,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,38; 32,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 62,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,28</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,91</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,3%</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,24%</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,5%</t>
+          <t>10,18%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-6,03%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23,27%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,16%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 2,36</t>
+          <t>-3,88; 9,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 7,39</t>
+          <t>-7,53; 6,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 2,39</t>
+          <t>-2,01; 10,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 4,7</t>
+          <t>-6,17; 10,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 15,74</t>
+          <t>-12,15; 14,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 4,67</t>
+          <t>-13,59; 42,52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-30,08; 32,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,45; 62,0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-26,52; 73,99</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-43,68; 97,42</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>-10,06%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-0,87%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-9,42%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-9,41%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-8,01%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 10,96</t>
+          <t>-12,52; 3,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 10,14</t>
+          <t>-8,96; 8,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 6,61</t>
+          <t>-12,9; 1,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 67,0</t>
+          <t>-13,98; 5,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 46,95</t>
+          <t>-21,89; 10,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 35,79</t>
+          <t>-21,46; 6,65</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-15,17; 16,75</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-20,7; 3,88</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-21,77; 8,79</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-32,93; 21,2</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-15,73</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-42,14%</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-18,67%</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-13,33%</t>
+          <t>14,66%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6,82%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8,39%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14,46%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-33,0; -1,14</t>
+          <t>-3,56; 9,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 7,58</t>
+          <t>-6,5; 9,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 8,04</t>
+          <t>-5,62; 6,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-67,8; -2,49</t>
+          <t>-6,31; 9,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-61,6; 70,14</t>
+          <t>-8,04; 15,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-50,05; 47,73</t>
+          <t>-15,75; 52,75</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-21,32; 43,18</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-21,38; 36,87</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-24,08; 48,52</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-30,52; 98,65</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 24,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 29,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 16,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 71,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 87,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 37,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>-16,2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-9,09</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>38,39%</t>
+          <t>13,81</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-25,05%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,88%</t>
+          <t>-41,83%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-12,47%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-13,56%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>127,31%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 19,5</t>
+          <t>-36,12; -2,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 5,01</t>
+          <t>-14,46; 10,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 10,91</t>
+          <t>-14,69; 8,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 164,21</t>
+          <t>2,52; 27,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-57,23; 19,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-35,73; 60,16</t>
+          <t>-68,65; -6,39</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-56,59; 98,77</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-51,28; 50,9</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>7,7; 480,41</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>12,73</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>12,63</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>-7,51</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-11,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>30,11%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>28,62%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-11,49%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 5,13</t>
+          <t>-3,55; 27,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 1,75</t>
+          <t>-2,49; 27,55</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,24</t>
+          <t>-9,77; 16,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 21,02</t>
+          <t>-25,03; 11,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 9,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 34,1</t>
+          <t>-6,46; 85,8</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 77,11</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-17,45; 38,92</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-33,51; 22,28</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>18,24%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-27,56%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-0,08%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-26,54%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 1,72</t>
+          <t>-8,22; 15,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 7,85</t>
+          <t>-27,79; 3,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,54; -0,35</t>
+          <t>-11,2; 12,26</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 3,34</t>
+          <t>-22,92; 7,98</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 16,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -0,66</t>
+          <t>-32,33; 129,05</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-57,37; 14,44</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-36,15; 67,55</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-66,98; 55,38</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,539 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 6,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 4,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 6,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 36,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 19,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 35,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-0,52%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-11,91%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 3,91</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 1,82</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 6,06</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 5,43</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 7,1</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-16,46; 15,79</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-30,21; 9,72</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 34,0</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-28,01; 34,68</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-19,25; 41,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>3,27</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-4,82</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-3,15%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-8,33%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-0,55%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-6,76; 3,14</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 8,12</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 0,21</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 5,66</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 7,05</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-11,9; 6,35</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 16,92</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-15,08; 0,39</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 10,86</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; 15,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-2,55%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>10,18%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-2,13%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>-4,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 5,75</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-5,74; 4,27</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 6,09</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-5,39; 4,25</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-8,16; 4,86</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 31,96</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-17,82; 16,75</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-9,22; 30,99</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-18,96; 19,26</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-23,32; 18,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P19_2-Urba-long_bre.xlsx
+++ b/data/long_bre/P19_2-Urba-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1434,7 +1434,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1536,7 +1536,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1756,7 +1756,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1870,7 +1870,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
